--- a/biology/Botanique/Funicule/Funicule.xlsx
+++ b/biology/Botanique/Funicule/Funicule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le funicule (du latin classique funiculus, « petite corde ») est, en botanique, un organe formant un cordon vasculaire qui relie l'ovule, puis plus tard la graine, à la paroi de l'ovaire, au niveau du placenta. Constitué de faisceaux vasculaires à la base de l'ovule (ce qui lui vaut parfois d'être appelé podosperme, du grec « podos », pied, et « sperma », semence), il a pour fonction de transporter les sucs nourriciers, d'où son appellation impropre de « cordon ombilical »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le funicule (du latin classique funiculus, « petite corde ») est, en botanique, un organe formant un cordon vasculaire qui relie l'ovule, puis plus tard la graine, à la paroi de l'ovaire, au niveau du placenta. Constitué de faisceaux vasculaires à la base de l'ovule (ce qui lui vaut parfois d'être appelé podosperme, du grec « podos », pied, et « sperma », semence), il a pour fonction de transporter les sucs nourriciers, d'où son appellation impropre de « cordon ombilical ».
 On peut facilement observer cette structure en écossant les petits pois : chaque ovule devenu pois est accroché par un mince filament à la paroi interne du fruit. Le point d'insertion du funicule sur l'ovule s'appelle le hile.
 Les graines des magnolias pendent parfois au bout de leur long funicule, lorsque le coenocarpe se dessèche. Chez les asclépiades, le funicule est formé de filets soyeux qui composent une aigrette.
 </t>
